--- a/CS4273 - Introduce to Software Engineering/M11/CS4273.M11.CTTT.1.xlsx
+++ b/CS4273 - Introduce to Software Engineering/M11/CS4273.M11.CTTT.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\CS4273 - NMCNPM\M11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\CS4273 - Introduce to Software Engineering\M11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456F8B5-FA9A-4881-B627-6C298A6FDAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343CFC37-D624-4DC2-BD24-AB496836073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Lab 6</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,21 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -886,11 +889,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="16"/>
@@ -901,11 +904,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -925,24 +928,24 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="21"/>
       <c r="E5" s="20" t="s">
         <v>5</v>
@@ -953,11 +956,11 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25" t="s">
         <v>7</v>
@@ -968,11 +971,11 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25" t="s">
         <v>9</v>
@@ -1047,8 +1050,12 @@
       <c r="G10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1097,8 +1104,12 @@
       <c r="G12" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="H12" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1123,8 +1134,12 @@
       <c r="G13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1147,8 +1162,12 @@
       <c r="G14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="H14" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,8 +1192,12 @@
       <c r="G15" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="H15" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1199,7 +1222,9 @@
       <c r="G16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
     </row>
@@ -1249,7 +1274,9 @@
       <c r="G18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
     </row>
@@ -1275,8 +1302,12 @@
       <c r="G19" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="H19" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1301,7 +1332,9 @@
       <c r="G20" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
     </row>
@@ -1327,8 +1360,12 @@
       <c r="G21" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="H21" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1353,8 +1390,12 @@
       <c r="G22" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="H22" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1375,8 +1416,12 @@
       <c r="G23" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="H23" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1401,8 +1446,12 @@
       <c r="G24" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="H24" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,7 +1477,9 @@
         <v>49</v>
       </c>
       <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="I25" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,8 +1504,12 @@
       <c r="G26" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="H26" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,8 +1532,12 @@
         <v>49</v>
       </c>
       <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="H27" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,33 +1557,33 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="9"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="10"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
@@ -1540,12 +1599,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E30:F30"/>
@@ -1553,6 +1606,12 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
